--- a/biology/Botanique/Nissolia/Nissolia.xlsx
+++ b/biology/Botanique/Nissolia/Nissolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nissolia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique, qui comprend 18 espèces acceptées.
 Ce sont des plantes herbacées vivaces volubiles ou des arbrisseaux.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Nissolia », est un hommage à Guillaume Nissole (1647-1735), botaniste français[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Nissolia », est un hommage à Guillaume Nissole (1647-1735), botaniste français.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle du genre Nissolia se situe dans les régions tropicales du Nouveau Monde. Nissolia fruticosa Jacq. est répandue le long de la cordillère des Andes, du Mexique à l’Argentine et au Paraguay. Les autres espèces ont des aires de répartition limitées au Mexique, mais également dans le sud-ouest des États-Unis[4].
-Les espèces de ce genre se rencontrent dans les forêts, fruticées et prairies saisonnièrement sèches, tropicales à tempérées chaudes, souvent dans des sites mésiques, à la lisières des forêts, sur les rives des cours d'eau, sur les collines et dans les ravins[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle du genre Nissolia se situe dans les régions tropicales du Nouveau Monde. Nissolia fruticosa Jacq. est répandue le long de la cordillère des Andes, du Mexique à l’Argentine et au Paraguay. Les autres espèces ont des aires de répartition limitées au Mexique, mais également dans le sud-ouest des États-Unis.
+Les espèces de ce genre se rencontrent dans les forêts, fruticées et prairies saisonnièrement sèches, tropicales à tempérées chaudes, souvent dans des sites mésiques, à la lisières des forêts, sur les rives des cours d'eau, sur les collines et dans les ravins.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (7 octobre 2018)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (7 octobre 2018) :
 Nissolia chiapensis Rudd
 Nissolia fruticosa Jacq.
 Nissolia gentryi Rudd
